--- a/hospitality/HospitalityReal.xlsx
+++ b/hospitality/HospitalityReal.xlsx
@@ -11,101 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Tribuna</t>
-  </si>
-  <si>
-    <t>Los Palcos de Tribuna del Estadio Santiago Bernabéu rebosan solera y tradición.</t>
-  </si>
-  <si>
-    <t>Primer Anfiteatro</t>
-  </si>
-  <si>
-    <t>El Primer Anfiteatro del estadio es, sin duda, el que mejor visión ofrece del terreno de juego.</t>
-  </si>
-  <si>
-    <t>Asiático</t>
-  </si>
-  <si>
-    <t>Si existe un lugar donde la expresión “lujo asiático” realmente cobra sentido, sin duda está en los palcos del Zen Market.</t>
-  </si>
-  <si>
-    <t>Área Blanca</t>
-  </si>
-  <si>
-    <t>Definitivamente, nos hallamos ante palcos situados en una de las mejores zonas del estadio y de los más exclusivos de todo el primer anfiteatro.</t>
-  </si>
-  <si>
-    <t>Segundo Anfiteatro</t>
-  </si>
-  <si>
-    <t>Ubicados en una de las mejores zonas del estadio y dotados de vistas fantásticas del terreno de juego.</t>
-  </si>
-  <si>
-    <t>Tercer Anfiteatro</t>
-  </si>
-  <si>
-    <t>Los Palcos de 3er Anfiteatro son los auténticos miradores del Estadio Santiago Bernabéu.</t>
-  </si>
-  <si>
-    <t>Puerta 57</t>
-  </si>
-  <si>
-    <t>Frente a la cristalera de uno de los restaurantes más emblemáticos y lujosos del estadio.</t>
-  </si>
-  <si>
-    <t>Asador de la Esquina</t>
-  </si>
-  <si>
-    <t>Ubicación en tribuna, con vista directa de la portería y una zona de hospitalidad moderna y con un servicio de primer nivel.</t>
-  </si>
-  <si>
-    <t>Butacas de Palco 1er Anfiteatro</t>
-  </si>
-  <si>
-    <t>Se encuentran en un palco el cual destaca por encima de todos por su tamaño y situación.</t>
-  </si>
-  <si>
-    <t>Sala de Trofeos</t>
-  </si>
-  <si>
-    <t>En el lateral oeste del segundo anfiteatro  se encuentran las butacas de los sectores 409 y 410, cuya hospitalidad se alberga en la Sala de Trofeos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salón Real </t>
-  </si>
-  <si>
-    <t>Situada en la Grada Alta del Lateral Este, esta zona cuenta con magníficas plazas cerca del terreno de juego.</t>
-  </si>
-  <si>
-    <t>2º Anfiteatro Exterior</t>
-  </si>
-  <si>
-    <t>En el centro exacto del Segundo Anfiteatro, justo sobre la línea divisoria del terreno de juego, se ubica esta zona de butacas.</t>
-  </si>
-  <si>
-    <t>Zonas de Palco Segundo Anfiteatro</t>
-  </si>
-  <si>
-    <t>Su disposición en una única fila de asientos y su ubicación en el campo las convierte en una opción diferente para disfrutar al máximo cada partido.</t>
-  </si>
-  <si>
-    <t>Butacas de Palco Segundo Anfiteatro</t>
-  </si>
-  <si>
-    <t>Situadas en el lateral este, con todos los servicios de un palco, magnifica ubicación, sin necesitad de contratar un número elevado de localidades.</t>
-  </si>
-  <si>
-    <t>Boxes</t>
-  </si>
-  <si>
-    <t>Los Boxes del Estadio Santiago Bernabéu son butacas de lujo por su configuración y situación en el campo.</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,133 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>